--- a/UnitTests/Tests/Interpolation.xlsx
+++ b/UnitTests/Tests/Interpolation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="240" windowWidth="19485" windowHeight="12405"/>
+    <workbookView xWindow="75" yWindow="240" windowWidth="19485" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$47</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -189,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,12 +252,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -294,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,9 +335,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,6 +387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,7 +579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -546,7 +588,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -598,9 +640,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3" t="b">
-        <f>_xll.qlExtrapolatorEnableExtrapolation(F11)</f>
-        <v>1</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlExtrapolatorEnableExtrapolation(F11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -614,9 +656,9 @@
         <f t="shared" ref="D4:D47" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4">
-        <f>_xll.qlInterpolationInterpolate(F11,G11:G14)</f>
-        <v>4</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(F11,G11:G14)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -630,9 +672,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5">
-        <f>_xll.qlInterpolationDerivative(F11,G11:G14)</f>
-        <v>0.99999999999999989</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlInterpolationDerivative(F11,G11:G14)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -646,9 +688,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E6">
-        <f>_xll.qlInterpolationSecondDerivative(F11,G11:G14)</f>
-        <v>0</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlInterpolationSecondDerivative(F11,G11:G14)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -662,9 +704,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E7">
-        <f>_xll.qlInterpolationPrimitive(F11,G11:G14)</f>
-        <v>0</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlInterpolationPrimitive(F11,G11:G14)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -678,9 +720,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E8" t="b">
-        <f>_xll.qlInterpolationIsInRange(F11,G11:G14)</f>
-        <v>1</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlInterpolationIsInRange(F11,G11:G14)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -694,9 +736,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E9">
-        <f>_xll.qlInterpolationXmin(F11)</f>
-        <v>1</v>
+      <c r="E9" t="e">
+        <f ca="1">_xll.qlInterpolationXmin(F11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -710,9 +752,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E10">
-        <f>_xll.qlInterpolationXmax(F11)</f>
-        <v>3</v>
+      <c r="E10" t="e">
+        <f ca="1">_xll.qlInterpolationXmax(F11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -726,13 +768,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E11" t="str">
-        <f>IF(ISERROR(F11),NA(),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xll.qlInterpolation(,,G11:G13,H11:H13)</f>
-        <v>obj_00001#0000</v>
+      <c r="E11" t="e">
+        <f ca="1">IF(ISERROR(F11),NA(),"OK")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" t="e">
+        <f ca="1">_xll.qlInterpolation(,,G11:G13,H11:H13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -764,13 +806,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E12" t="str">
-        <f>IF(ISERROR(F12),NA(),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xll.qlMixedLinearCubicInterpolation(,G11:G13,H11:H13)</f>
-        <v>obj_00002#0000</v>
+      <c r="E12" t="e">
+        <f ca="1">IF(ISERROR(F12),NA(),"OK")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="e">
+        <f ca="1">_xll.qlMixedLinearCubicInterpolation(,G11:G13,H11:H13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -802,13 +844,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E13" t="str">
-        <f>IF(ISERROR(F13),NA(),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="F13" t="str">
-        <f>_xll.qlCubicInterpolation(,G11:G14,H11:H14,"kruger",TRUE,"secondderivative",0,"secondderivative",0)</f>
-        <v>obj_00004#0000</v>
+      <c r="E13" t="e">
+        <f ca="1">IF(ISERROR(F13),NA(),"OK")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" t="e">
+        <f ca="1">_xll.qlCubicInterpolation(,G11:G14,H11:H14,"kruger",TRUE,"secondderivative",0,"secondderivative",0)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -840,9 +882,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E14">
-        <f>_xll.qlCubicInterpolationPrimitiveConstants(F13)</f>
-        <v>0</v>
+      <c r="E14" t="e">
+        <f ca="1">_xll.qlCubicInterpolationPrimitiveConstants(F13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -874,9 +916,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E15">
-        <f>_xll.qlCubicInterpolationACoefficients(F13)</f>
-        <v>1</v>
+      <c r="E15" t="e">
+        <f ca="1">_xll.qlCubicInterpolationACoefficients(F13)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -890,9 +932,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E16">
-        <f>_xll.qlCubicInterpolationBCoefficients(F13)</f>
-        <v>0</v>
+      <c r="E16" t="e">
+        <f ca="1">_xll.qlCubicInterpolationBCoefficients(F13)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,9 +948,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E17">
-        <f>_xll.qlCubicInterpolationCCoefficients(F13)</f>
-        <v>0</v>
+      <c r="E17" t="e">
+        <f ca="1">_xll.qlCubicInterpolationCCoefficients(F13)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -922,9 +964,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E18" t="b">
-        <f>_xll.qlCubicInterpolationMonotonicityAdjustments(F13)</f>
-        <v>0</v>
+      <c r="E18" t="e">
+        <f ca="1">_xll.qlCubicInterpolationMonotonicityAdjustments(F13)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,13 +980,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E19" t="str">
-        <f>IF(ISERROR(F19),NA(),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="F19" t="str">
-        <f>_xll.qlAbcdInterpolation(,G11:G14,H11:H14,1,2,3,4)</f>
-        <v>obj_00003#0000</v>
+      <c r="E19" t="e">
+        <f ca="1">IF(ISERROR(F19),NA(),"OK")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="e">
+        <f ca="1">_xll.qlAbcdInterpolation(,G11:G14,H11:H14,1,2,3,4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,9 +1000,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E20">
-        <f>_xll.qlAbcdInterpolationA(F19)</f>
-        <v>-7.7636293687148434</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationA(F19)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,9 +1016,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E21">
-        <f>_xll.qlAbcdInterpolationB(F19)</f>
-        <v>-4.9420174793581868</v>
+      <c r="E21" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationB(F19)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,9 +1032,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E22">
-        <f>_xll.qlAbcdInterpolationC(F19)</f>
-        <v>0.69766803247102049</v>
+      <c r="E22" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationC(F19)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1006,9 +1048,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E23">
-        <f>_xll.qlAbcdInterpolationD(F19)</f>
-        <v>11.139418706107959</v>
+      <c r="E23" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationD(F19)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,9 +1064,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E24">
-        <f>_xll.qlAbcdInterpolationRmsError(F19)</f>
-        <v>2.1471103494774504E-6</v>
+      <c r="E24" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationRmsError(F19)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1038,9 +1080,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E25">
-        <f>_xll.qlAbcdInterpolationMaxError(F19)</f>
-        <v>0.14393281788978829</v>
+      <c r="E25" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationMaxError(F19)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,9 +1096,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E26" t="str">
-        <f>_xll.qlAbcdInterpolationEndCriteria(F19)</f>
-        <v>MaxIterations</v>
+      <c r="E26" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationEndCriteria(F19)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1070,13 +1112,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E27" t="str">
-        <f>IF(ISERROR(F27),NA(),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="F27" t="str">
-        <f>_xll.qlSABRInterpolation(,G11:G14,H11:H14,1,5,1,0.5,3,0.5)</f>
-        <v>obj_00005#0000</v>
+      <c r="E27" t="e">
+        <f ca="1">IF(ISERROR(F27),NA(),"OK")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F27" t="e">
+        <f ca="1">_xll.qlSABRInterpolation(,G11:G14,H11:H14,1,5,1,0.5,3,0.5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,9 +1132,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E28">
-        <f>_xll.qlSABRInterpolationExpiry(F27)</f>
-        <v>1</v>
+      <c r="E28" t="e">
+        <f ca="1">_xll.qlSABRInterpolationExpiry(F27)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,9 +1148,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E29">
-        <f>_xll.qlSABRInterpolationForward(F27)</f>
-        <v>5</v>
+      <c r="E29" t="e">
+        <f ca="1">_xll.qlSABRInterpolationForward(F27)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1122,9 +1164,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E30">
-        <f>_xll.qlSABRInterpolationAlpha(F27)</f>
-        <v>403.47569699818865</v>
+      <c r="E30" t="e">
+        <f ca="1">_xll.qlSABRInterpolationAlpha(F27)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1138,9 +1180,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E31">
-        <f>_xll.qlSABRInterpolationBeta(F27)</f>
-        <v>0.96361608648142882</v>
+      <c r="E31" t="e">
+        <f ca="1">_xll.qlSABRInterpolationBeta(F27)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,9 +1196,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E32">
-        <f>_xll.qlSABRInterpolationNu(F27)</f>
-        <v>9.5450411997902709</v>
+      <c r="E32" t="e">
+        <f ca="1">_xll.qlSABRInterpolationNu(F27)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1170,9 +1212,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E33">
-        <f>_xll.qlSABRInterpolationRho(F27)</f>
-        <v>-1.891972516973674E-2</v>
+      <c r="E33" t="e">
+        <f ca="1">_xll.qlSABRInterpolationRho(F27)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1186,9 +1228,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E34">
-        <f>_xll.qlSABRInterpolationRmsError(F27)</f>
-        <v>1.2920874845338397E-2</v>
+      <c r="E34" t="e">
+        <f ca="1">_xll.qlSABRInterpolationRmsError(F27)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1202,9 +1244,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E35">
-        <f>_xll.qlSABRInterpolationMaxError(F27)</f>
-        <v>5.2496772945305636E-2</v>
+      <c r="E35" t="e">
+        <f ca="1">_xll.qlSABRInterpolationMaxError(F27)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,9 +1260,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E36" t="str">
-        <f>_xll.qlSABRInterpolationEndCriteria(F27)</f>
-        <v>MaxIterations</v>
+      <c r="E36" t="e">
+        <f ca="1">_xll.qlSABRInterpolationEndCriteria(F27)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,9 +1276,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E37">
-        <f>_xll.qlSABRInterpolationWeights(F27)</f>
-        <v>0.59588070870046583</v>
+      <c r="E37" t="e">
+        <f ca="1">_xll.qlSABRInterpolationWeights(F27)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1250,9 +1292,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E38">
-        <f>_xll.qlInterpolation2DXmin(F47)</f>
-        <v>1</v>
+      <c r="E38" t="e">
+        <f ca="1">_xll.qlInterpolation2DXmin(F47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,9 +1308,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E39">
-        <f>_xll.qlInterpolation2DXmax(F47)</f>
-        <v>4</v>
+      <c r="E39" t="e">
+        <f ca="1">_xll.qlInterpolation2DXmax(F47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1282,9 +1324,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E40">
-        <f>_xll.qlInterpolation2DXvalues(F47)</f>
-        <v>1</v>
+      <c r="E40" t="e">
+        <f ca="1">_xll.qlInterpolation2DXvalues(F47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1298,9 +1340,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E41">
-        <f>_xll.qlInterpolation2DYmin(F47)</f>
-        <v>4</v>
+      <c r="E41" t="e">
+        <f ca="1">_xll.qlInterpolation2DYmin(F47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,9 +1356,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E42">
-        <f>_xll.qlInterpolation2DYmax(F47)</f>
-        <v>7</v>
+      <c r="E42" t="e">
+        <f ca="1">_xll.qlInterpolation2DYmax(F47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1330,9 +1372,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E43">
-        <f>_xll.qlInterpolation2DYvalues(F47)</f>
-        <v>4</v>
+      <c r="E43" t="e">
+        <f ca="1">_xll.qlInterpolation2DYvalues(F47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1346,9 +1388,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E44">
-        <f>_xll.qlInterpolation2DzData(F47)</f>
-        <v>1</v>
+      <c r="E44" t="e">
+        <f ca="1">_xll.qlInterpolation2DzData(F47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1362,9 +1404,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E45" t="b">
-        <f>_xll.qlInterpolation2DIsInRange(F47,G11:G14,H11)</f>
-        <v>1</v>
+      <c r="E45" t="e">
+        <f ca="1">_xll.qlInterpolation2DIsInRange(F47,G11:G14,H11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1378,9 +1420,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E46">
-        <f>_xll.qlInterpolation2DInterpolate(F47,G11,H11)</f>
-        <v>1</v>
+      <c r="E46" t="e">
+        <f ca="1">_xll.qlInterpolation2DInterpolate(F47,G11,H11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,13 +1436,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E47" t="str">
-        <f>IF(ISERROR(F47),NA(),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="F47" t="str">
-        <f>_xll.qlInterpolation2D(,"bilinear",G11:G14,H11:H14,J11:M14)</f>
-        <v>obj_00000#0000</v>
+      <c r="E47" t="e">
+        <f ca="1">IF(ISERROR(F47),NA(),"OK")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F47" t="e">
+        <f ca="1">_xll.qlInterpolation2D(,"bilinear",G11:G14,H11:H14,J11:M14)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1410,26 +1452,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
